--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>658626.0000536041</v>
+        <v>654460.9011703703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932838.81031688</v>
+        <v>33932838.81031689</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4550841.534041994</v>
+        <v>4550841.534041995</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         <v>3.262548922260276</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2.066753047649844</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,17 +974,17 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>2.873653090726851</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.262548922260276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.873653090726851</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.262548922260276</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>3.262548922260276</v>
@@ -1101,20 +1101,20 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>3.262548922260276</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.39025468426209</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="X9" t="n">
-        <v>41.31500304752735</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,25 +1293,25 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
+        <v>17.8422975499833</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>389.2624082003829</v>
       </c>
       <c r="G11" t="n">
-        <v>348.0135555799698</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>218.919525311128</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>93.57242580000975</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>184.048713613385</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>245.9106776616432</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>74.42811009354853</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>160.0262941290689</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>389.9598744883054</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>205.59327497002</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>54.37841453763473</v>
       </c>
       <c r="F19" t="n">
-        <v>45.65000012971578</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>227.4528731049589</v>
       </c>
       <c r="D20" t="n">
-        <v>251.7334451427077</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>157.5672172351602</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
@@ -2259,7 +2259,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>100.1472502492082</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,19 +2320,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>68.46862530694997</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>286.2825378286034</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>172.3192783927305</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H25" t="n">
         <v>130.755438388961</v>
       </c>
       <c r="I25" t="n">
-        <v>36.21407378602174</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>115.905308725027</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.3624689967422</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>58.69287499452746</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>40.14501491694347</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0639424294076</v>
+        <v>94.76464218703319</v>
       </c>
       <c r="H28" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.69731283314</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>246.0575532523966</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.0172048696386</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.755438388961</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T31" t="n">
         <v>239.69731283314</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>97.1478579615051</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>129.5838047073954</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,22 +3031,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>96.42924168362734</v>
       </c>
       <c r="G32" t="n">
-        <v>237.8730661262333</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>94.68136165032553</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I34" t="n">
         <v>61.56737989728833</v>
@@ -3246,7 +3246,7 @@
         <v>275.6011387506063</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>79.95145259786851</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3271,10 +3271,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -3283,7 +3283,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H35" t="n">
-        <v>9.473950874892051</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>47.01708293271946</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3432,16 +3432,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>51.28006429246575</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I37" t="n">
         <v>61.56737989728833</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T37" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6011387506063</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>147.8020467751571</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3514,10 +3514,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4411721128946</v>
+        <v>251.6661940749212</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>257.382932799821</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>133.8240882003086</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3681,7 +3681,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I40" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U40" t="n">
-        <v>126.3432804206136</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3726,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>255.3040750622142</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>218.8364198716347</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0639424294076</v>
@@ -3918,7 +3918,7 @@
         <v>130.755438388961</v>
       </c>
       <c r="I43" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>239.69731283314</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>13.48962336987207</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>173.1730187437986</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>422.413865856963</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,7 +3994,7 @@
         <v>395.4411721128946</v>
       </c>
       <c r="H44" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.3624689967422</v>
@@ -4036,7 +4036,7 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>220.9827960162195</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>113.1742842498942</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0639424294076</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.90342336763547</v>
       </c>
       <c r="I46" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.556507875659889</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="C5" t="n">
         <v>3.556507875659889</v>
@@ -4606,13 +4606,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W5" t="n">
-        <v>12.23514514047847</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X5" t="n">
-        <v>10.14751579941802</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.852011837538956</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2610039137808221</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E6" t="n">
         <v>0.2610039137808221</v>
@@ -4643,28 +4643,28 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="I6" t="n">
-        <v>1.255807204432014</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J6" t="n">
-        <v>4.485730637469688</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K6" t="n">
-        <v>5.40119217402134</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L6" t="n">
-        <v>6.632143184885602</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M6" t="n">
-        <v>8.068604954355926</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N6" t="n">
-        <v>9.543085592538734</v>
+        <v>7.804614332330358</v>
       </c>
       <c r="O6" t="n">
-        <v>10.89194731330136</v>
+        <v>9.15347605309298</v>
       </c>
       <c r="P6" t="n">
-        <v>11.97452776196327</v>
+        <v>10.2360565017549</v>
       </c>
       <c r="Q6" t="n">
         <v>12.69820412233482</v>
@@ -4673,22 +4673,22 @@
         <v>13.05019568904111</v>
       </c>
       <c r="S6" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T6" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="U6" t="n">
-        <v>10.14751579941802</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V6" t="n">
-        <v>10.14751579941802</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W6" t="n">
-        <v>10.14751579941802</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X6" t="n">
-        <v>6.852011837538956</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y6" t="n">
         <v>3.556507875659889</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>9.754691727162038</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.754691727162038</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.754691727162038</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9.754691727162038</v>
+      </c>
+      <c r="F7" t="n">
         <v>6.852011837538956</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.556507875659889</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.556507875659889</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.556507875659889</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.556507875659889</v>
-      </c>
       <c r="G7" t="n">
-        <v>3.556507875659889</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="H7" t="n">
         <v>3.556507875659889</v>
@@ -4725,40 +4725,40 @@
         <v>0.2610039137808221</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5970352923692027</v>
+        <v>3.473341285356502</v>
       </c>
       <c r="K7" t="n">
-        <v>3.826958725406876</v>
+        <v>6.703264718394175</v>
       </c>
       <c r="L7" t="n">
-        <v>4.59865968884831</v>
+        <v>9.933188151431848</v>
       </c>
       <c r="M7" t="n">
-        <v>5.343701358000868</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N7" t="n">
-        <v>8.57362479103854</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O7" t="n">
-        <v>9.245428298083949</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P7" t="n">
-        <v>9.820272256003433</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q7" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R7" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S7" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T7" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U7" t="n">
-        <v>9.754691727162038</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V7" t="n">
         <v>9.754691727162038</v>
@@ -4770,7 +4770,7 @@
         <v>9.754691727162038</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.852011837538956</v>
+        <v>9.754691727162038</v>
       </c>
     </row>
     <row r="8">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="C9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="D9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="E9" t="n">
-        <v>40.06303325820834</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="F9" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="G9" t="n">
-        <v>3.305200243802188</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>16.73554758011547</v>
       </c>
       <c r="J9" t="n">
-        <v>59.89648401348967</v>
+        <v>23.32497423834099</v>
       </c>
       <c r="K9" t="n">
-        <v>71.1588637208333</v>
+        <v>34.5873539456846</v>
       </c>
       <c r="L9" t="n">
-        <v>86.30252310133811</v>
+        <v>49.73101332618943</v>
       </c>
       <c r="M9" t="n">
-        <v>103.9744593181195</v>
+        <v>67.40294954297083</v>
       </c>
       <c r="N9" t="n">
-        <v>122.1141191020718</v>
+        <v>85.54260932692307</v>
       </c>
       <c r="O9" t="n">
-        <v>138.7083639341947</v>
+        <v>102.136854159046</v>
       </c>
       <c r="P9" t="n">
-        <v>152.0267083864403</v>
+        <v>115.4551986112916</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.929668948206</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4913,22 +4913,22 @@
         <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="U9" t="n">
-        <v>123.5276858794757</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="V9" t="n">
-        <v>123.5276858794757</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="W9" t="n">
-        <v>81.79535956884203</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="X9" t="n">
-        <v>40.06303325820834</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.06303325820834</v>
+        <v>86.08590667097184</v>
       </c>
     </row>
     <row r="10">
@@ -4941,40 +4941,40 @@
         <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>63.06004933219679</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>21.3277230215631</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3277230215631</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3277230215631</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H10" t="n">
-        <v>21.3277230215631</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>41.59117297624078</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>48.38459589248281</v>
+        <v>15.74754252345352</v>
       </c>
       <c r="L10" t="n">
-        <v>57.07783833162382</v>
+        <v>24.44078496259454</v>
       </c>
       <c r="M10" t="n">
-        <v>66.24364360116697</v>
+        <v>33.60659023213768</v>
       </c>
       <c r="N10" t="n">
-        <v>75.19150650798248</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
         <v>83.45630615600527</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1106.599419841792</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="C11" t="n">
-        <v>668.4569470252159</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="D11" t="n">
-        <v>668.4569470252159</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="E11" t="n">
-        <v>668.4569470252159</v>
+        <v>440.4009032665132</v>
       </c>
       <c r="F11" t="n">
-        <v>668.4569470252159</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447736</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447736</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027047</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y11" t="n">
-        <v>1532.8989903267</v>
+        <v>874.1756481082181</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043098</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.5847871853875</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C13" t="n">
-        <v>743.0230756686125</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D13" t="n">
-        <v>577.1450828701352</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.3870791208724</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5196,7 +5196,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1364.434443083199</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2139.196743800132</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2139.196743800132</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1852.241235670562</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1580.214831256854</v>
+        <v>1592.180704907616</v>
       </c>
       <c r="X13" t="n">
-        <v>1334.823076590267</v>
+        <v>1346.788950241029</v>
       </c>
       <c r="Y13" t="n">
-        <v>1107.403405904375</v>
+        <v>1119.369279555137</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1532.8989903267</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="C14" t="n">
-        <v>1094.756517510124</v>
+        <v>695.1038667701273</v>
       </c>
       <c r="D14" t="n">
-        <v>1094.756517510124</v>
+        <v>695.1038667701273</v>
       </c>
       <c r="E14" t="n">
-        <v>660.9817726684187</v>
+        <v>695.1038667701273</v>
       </c>
       <c r="F14" t="n">
-        <v>233.1143430776264</v>
+        <v>695.1038667701273</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>295.6011754496045</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W14" t="n">
-        <v>2360.327577447736</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X14" t="n">
-        <v>1941.185114027047</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.8989903267</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5360,10 +5360,10 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D16" t="n">
-        <v>299.0935147726011</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909393</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092371</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827552</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789086</v>
+        <v>1456.672986427159</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362629</v>
+        <v>1994.108117000703</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5478,10 +5478,10 @@
         <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>974.6425490183487</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>747.222878332457</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.073981139747</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C17" t="n">
         <v>475.073981139747</v>
@@ -5503,25 +5503,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,7 +5530,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>2152.657602730545</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.25688596925</v>
+        <v>2152.657602730545</v>
       </c>
       <c r="W17" t="n">
-        <v>1696.401431380283</v>
+        <v>1747.802148141578</v>
       </c>
       <c r="X17" t="n">
-        <v>1277.258967959594</v>
+        <v>1747.802148141578</v>
       </c>
       <c r="Y17" t="n">
-        <v>868.9728442592474</v>
+        <v>1339.516024441231</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987884</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,55 +5649,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>663.4738450083632</v>
+        <v>977.4615289265248</v>
       </c>
       <c r="C19" t="n">
-        <v>490.9121334915882</v>
+        <v>804.8998174097497</v>
       </c>
       <c r="D19" t="n">
-        <v>490.9121334915882</v>
+        <v>639.0218246112725</v>
       </c>
       <c r="E19" t="n">
-        <v>321.1541297423254</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L19" t="n">
-        <v>481.9462364092376</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827552</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789086</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>2205.505779732759</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
         <v>2215.901038951971</v>
@@ -5706,19 +5706,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>890.893515694255</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083632</v>
+        <v>1169.280147645512</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1163.124933196308</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="C20" t="n">
-        <v>1163.124933196308</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895472</v>
@@ -5749,16 +5749,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X20" t="n">
-        <v>1997.710627381563</v>
+        <v>1538.10179417567</v>
       </c>
       <c r="Y20" t="n">
-        <v>1589.424503681216</v>
+        <v>1538.10179417567</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>908.8655996749508</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>736.3038881581757</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>736.3038881581757</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
-        <v>566.545884408913</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L22" t="n">
-        <v>733.422710770687</v>
+        <v>601.5415720081295</v>
       </c>
       <c r="M22" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2259.168738812172</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1980.782106860915</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.8655996749508</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>987.7246086758595</v>
+        <v>1320.232596470865</v>
       </c>
       <c r="C23" t="n">
-        <v>987.7246086758595</v>
+        <v>882.0901236542886</v>
       </c>
       <c r="D23" t="n">
-        <v>551.814823850304</v>
+        <v>882.0901236542886</v>
       </c>
       <c r="E23" t="n">
-        <v>118.0400790085992</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="F23" t="n">
-        <v>48.87985142582146</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="G23" t="n">
         <v>48.87985142582146</v>
@@ -5998,7 +5998,7 @@
         <v>834.0004692019343</v>
       </c>
       <c r="M23" t="n">
-        <v>1171.707067812896</v>
+        <v>1171.707067812895</v>
       </c>
       <c r="N23" t="n">
         <v>1514.878112250761</v>
@@ -6022,19 +6022,19 @@
         <v>2443.992571291073</v>
       </c>
       <c r="U23" t="n">
-        <v>2184.927252927288</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="V23" t="n">
-        <v>1822.310302861114</v>
+        <v>2154.81829065612</v>
       </c>
       <c r="W23" t="n">
-        <v>1822.310302861114</v>
+        <v>2154.81829065612</v>
       </c>
       <c r="X23" t="n">
-        <v>1822.310302861114</v>
+        <v>2154.81829065612</v>
       </c>
       <c r="Y23" t="n">
-        <v>1414.024179160767</v>
+        <v>1746.532166955773</v>
       </c>
     </row>
     <row r="24">
@@ -6074,13 +6074,13 @@
         <v>347.6962101248521</v>
       </c>
       <c r="L24" t="n">
-        <v>512.1816048303893</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M24" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N24" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O24" t="n">
         <v>1285.381570195347</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.9756286450968</v>
+        <v>747.794247364084</v>
       </c>
       <c r="C25" t="n">
-        <v>383.4139171283217</v>
+        <v>747.794247364084</v>
       </c>
       <c r="D25" t="n">
-        <v>217.5359243298444</v>
+        <v>581.9162545656067</v>
       </c>
       <c r="E25" t="n">
-        <v>217.5359243298444</v>
+        <v>581.9162545656067</v>
       </c>
       <c r="F25" t="n">
-        <v>217.5359243298444</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G25" t="n">
-        <v>217.5359243298444</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H25" t="n">
-        <v>85.45972393695453</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I25" t="n">
         <v>48.87985142582146</v>
@@ -6150,19 +6150,19 @@
         <v>196.4528223035573</v>
       </c>
       <c r="K25" t="n">
-        <v>571.4419816982402</v>
+        <v>296.6835271271046</v>
       </c>
       <c r="L25" t="n">
-        <v>1117.912657416459</v>
+        <v>539.0117042834557</v>
       </c>
       <c r="M25" t="n">
-        <v>1253.145681146696</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N25" t="n">
-        <v>1385.163165833298</v>
+        <v>1708.004883038852</v>
       </c>
       <c r="O25" t="n">
-        <v>1902.106753051453</v>
+        <v>2249.613647021794</v>
       </c>
       <c r="P25" t="n">
         <v>2353.95396759867</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>886.4578516291604</v>
+        <v>922.9321090679537</v>
       </c>
       <c r="C26" t="n">
-        <v>448.3153788125837</v>
+        <v>484.789636251377</v>
       </c>
       <c r="D26" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="E26" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="F26" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="G26" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H26" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I26" t="n">
-        <v>122.6176114159376</v>
+        <v>122.6176114159378</v>
       </c>
       <c r="J26" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294304</v>
       </c>
       <c r="K26" t="n">
-        <v>530.4965414133952</v>
+        <v>530.4965414133954</v>
       </c>
       <c r="L26" t="n">
-        <v>834.0004692019338</v>
+        <v>834.0004692019342</v>
       </c>
       <c r="M26" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N26" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O26" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P26" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q26" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383278</v>
       </c>
       <c r="R26" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S26" t="n">
-        <v>2405.056699646439</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T26" t="n">
-        <v>2193.579458235589</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U26" t="n">
-        <v>2193.579458235589</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="V26" t="n">
-        <v>1830.962508169415</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="W26" t="n">
-        <v>1830.962508169415</v>
+        <v>1827.659875291255</v>
       </c>
       <c r="X26" t="n">
-        <v>1411.820044748726</v>
+        <v>1408.517411870566</v>
       </c>
       <c r="Y26" t="n">
-        <v>1003.53392104838</v>
+        <v>1349.231679552861</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G27" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H27" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I27" t="n">
-        <v>84.30923179960392</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J27" t="n">
-        <v>181.5301595233808</v>
+        <v>122.5847930309432</v>
       </c>
       <c r="K27" t="n">
-        <v>347.6962101248521</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L27" t="n">
-        <v>571.1269713228269</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M27" t="n">
-        <v>831.8601310926884</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N27" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O27" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P27" t="n">
         <v>1481.881489012384</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.9756286450963</v>
+        <v>891.6957469470869</v>
       </c>
       <c r="C28" t="n">
-        <v>555.9756286450963</v>
+        <v>719.1340354303119</v>
       </c>
       <c r="D28" t="n">
-        <v>515.4251085269716</v>
+        <v>553.2560426318346</v>
       </c>
       <c r="E28" t="n">
-        <v>345.6671047777089</v>
+        <v>383.4980388825718</v>
       </c>
       <c r="F28" t="n">
-        <v>345.6671047777089</v>
+        <v>206.7909848443281</v>
       </c>
       <c r="G28" t="n">
-        <v>180.9560518187113</v>
+        <v>111.069124049345</v>
       </c>
       <c r="H28" t="n">
-        <v>48.87985142582144</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I28" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J28" t="n">
         <v>196.4528223035573</v>
       </c>
       <c r="K28" t="n">
-        <v>571.4419816982402</v>
+        <v>296.6835271271046</v>
       </c>
       <c r="L28" t="n">
-        <v>902.4651518554754</v>
+        <v>424.9443210773624</v>
       </c>
       <c r="M28" t="n">
-        <v>1037.698175585712</v>
+        <v>1019.661211988512</v>
       </c>
       <c r="N28" t="n">
-        <v>1611.974463429959</v>
+        <v>1593.937499832759</v>
       </c>
       <c r="O28" t="n">
-        <v>1733.91397818712</v>
+        <v>2135.546263815701</v>
       </c>
       <c r="P28" t="n">
-        <v>2185.761192734337</v>
+        <v>2239.886584392577</v>
       </c>
       <c r="Q28" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R28" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S28" t="n">
-        <v>2300.091071708069</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T28" t="n">
-        <v>2057.972573896817</v>
+        <v>2201.87407347982</v>
       </c>
       <c r="U28" t="n">
-        <v>1779.587585259841</v>
+        <v>1923.489084842844</v>
       </c>
       <c r="V28" t="n">
-        <v>1492.632077130271</v>
+        <v>1636.533576713275</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.605672716563</v>
+        <v>1364.507172299566</v>
       </c>
       <c r="X28" t="n">
-        <v>975.2139180499753</v>
+        <v>1119.115417632979</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.7942473640835</v>
+        <v>891.6957469470869</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1784.574283500451</v>
+        <v>1000.231288170219</v>
       </c>
       <c r="C29" t="n">
-        <v>1346.431810683874</v>
+        <v>1000.231288170219</v>
       </c>
       <c r="D29" t="n">
-        <v>910.5220258583186</v>
+        <v>751.6883050869899</v>
       </c>
       <c r="E29" t="n">
-        <v>476.7472810166137</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="F29" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="G29" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H29" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I29" t="n">
-        <v>122.6176114159379</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8514025294305</v>
+        <v>285.8514025294302</v>
       </c>
       <c r="K29" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133952</v>
       </c>
       <c r="L29" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019339</v>
       </c>
       <c r="M29" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N29" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O29" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P29" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q29" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="T29" t="n">
-        <v>2443.992571291073</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.992571291073</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.992571291073</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="W29" t="n">
-        <v>2039.137116702106</v>
+        <v>1827.659875291255</v>
       </c>
       <c r="X29" t="n">
-        <v>2039.137116702106</v>
+        <v>1408.517411870565</v>
       </c>
       <c r="Y29" t="n">
-        <v>1784.574283500451</v>
+        <v>1000.231288170219</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G30" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368232</v>
       </c>
       <c r="H30" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I30" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960392</v>
       </c>
       <c r="J30" t="n">
         <v>181.5301595233808</v>
@@ -6554,13 +6554,13 @@
         <v>831.8601310926884</v>
       </c>
       <c r="N30" t="n">
-        <v>1099.494121765928</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O30" t="n">
-        <v>1344.326936687785</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P30" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q30" t="n">
         <v>1613.236480910291</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.761139503991</v>
+        <v>928.0500865449937</v>
       </c>
       <c r="C31" t="n">
-        <v>920.1994279872162</v>
+        <v>755.4883750282187</v>
       </c>
       <c r="D31" t="n">
-        <v>754.3214351887389</v>
+        <v>589.6103822297414</v>
       </c>
       <c r="E31" t="n">
-        <v>584.5634314394762</v>
+        <v>419.8523784804787</v>
       </c>
       <c r="F31" t="n">
-        <v>407.8563774012324</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="G31" t="n">
         <v>243.1453244422349</v>
@@ -6618,55 +6618,55 @@
         <v>111.069124049345</v>
       </c>
       <c r="I31" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="J31" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K31" t="n">
-        <v>210.1038419624147</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L31" t="n">
-        <v>756.5745176806336</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M31" t="n">
-        <v>1133.728595194606</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N31" t="n">
-        <v>1708.004883038852</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O31" t="n">
-        <v>2249.613647021794</v>
+        <v>1926.77192981624</v>
       </c>
       <c r="P31" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734337</v>
       </c>
       <c r="Q31" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S31" t="n">
-        <v>2443.992571291073</v>
+        <v>2300.091071708069</v>
       </c>
       <c r="T31" t="n">
-        <v>2201.87407347982</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U31" t="n">
-        <v>2201.87407347982</v>
+        <v>1959.843424440751</v>
       </c>
       <c r="V31" t="n">
-        <v>1914.918565350251</v>
+        <v>1672.887916311181</v>
       </c>
       <c r="W31" t="n">
-        <v>1642.892160936542</v>
+        <v>1400.861511897473</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.99942890887</v>
+        <v>1155.469757230886</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.579758222978</v>
+        <v>928.0500865449937</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2024.850107870383</v>
+        <v>849.0915795148964</v>
       </c>
       <c r="C32" t="n">
-        <v>1586.707635053807</v>
+        <v>849.0915795148964</v>
       </c>
       <c r="D32" t="n">
-        <v>1150.797850228251</v>
+        <v>849.0915795148964</v>
       </c>
       <c r="E32" t="n">
-        <v>717.0231053865464</v>
+        <v>415.3168346731915</v>
       </c>
       <c r="F32" t="n">
-        <v>289.1556757957541</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="G32" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H32" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="I32" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159379</v>
       </c>
       <c r="J32" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294305</v>
       </c>
       <c r="K32" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133954</v>
       </c>
       <c r="L32" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019342</v>
       </c>
       <c r="M32" t="n">
         <v>1171.707067812895</v>
@@ -6736,16 +6736,16 @@
         <v>2443.992571291073</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.992571291073</v>
+        <v>2081.375621224899</v>
       </c>
       <c r="W32" t="n">
-        <v>2443.992571291073</v>
+        <v>1676.520166635932</v>
       </c>
       <c r="X32" t="n">
-        <v>2024.850107870383</v>
+        <v>1257.377703215243</v>
       </c>
       <c r="Y32" t="n">
-        <v>2024.850107870383</v>
+        <v>849.0915795148964</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C33" t="n">
-        <v>1204.271003021223</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D33" t="n">
-        <v>1109.180714167776</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E33" t="n">
-        <v>1015.06029949473</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F33" t="n">
-        <v>931.6764611108913</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G33" t="n">
-        <v>847.3412965732202</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H33" t="n">
-        <v>815.7457114153593</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I33" t="n">
-        <v>851.1750917891418</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J33" t="n">
-        <v>948.3960195129187</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K33" t="n">
-        <v>1114.56207011439</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L33" t="n">
-        <v>1337.992831312365</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M33" t="n">
-        <v>1598.725991082226</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.359981755465</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.192796677323</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P33" t="n">
-        <v>2248.747349001922</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q33" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R33" t="n">
-        <v>2443.992571291073</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S33" t="n">
-        <v>2400.039033764342</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T33" t="n">
-        <v>2274.092325425019</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U33" t="n">
-        <v>2097.82485245105</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V33" t="n">
-        <v>1898.707334513049</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W33" t="n">
-        <v>1713.384580246243</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X33" t="n">
-        <v>1558.517144485123</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y33" t="n">
-        <v>1432.031365264344</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>555.9756286450968</v>
+        <v>762.1720937465165</v>
       </c>
       <c r="C34" t="n">
-        <v>383.4139171283217</v>
+        <v>589.6103822297414</v>
       </c>
       <c r="D34" t="n">
-        <v>287.7761780875888</v>
+        <v>589.6103822297414</v>
       </c>
       <c r="E34" t="n">
-        <v>287.7761780875888</v>
+        <v>419.8523784804787</v>
       </c>
       <c r="F34" t="n">
-        <v>111.069124049345</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="G34" t="n">
-        <v>111.069124049345</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H34" t="n">
         <v>111.069124049345</v>
@@ -6858,25 +6858,25 @@
         <v>48.87985142582146</v>
       </c>
       <c r="J34" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K34" t="n">
-        <v>210.1038419624147</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L34" t="n">
-        <v>756.5745176806336</v>
+        <v>925.054705787339</v>
       </c>
       <c r="M34" t="n">
-        <v>1351.291408591783</v>
+        <v>1060.287729517576</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.56769643603</v>
+        <v>1192.305214204178</v>
       </c>
       <c r="O34" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P34" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q34" t="n">
         <v>2426.193797186283</v>
@@ -6894,16 +6894,16 @@
         <v>1779.587585259841</v>
       </c>
       <c r="V34" t="n">
-        <v>1492.632077130272</v>
+        <v>1698.828542231691</v>
       </c>
       <c r="W34" t="n">
-        <v>1220.605672716563</v>
+        <v>1426.802137817983</v>
       </c>
       <c r="X34" t="n">
-        <v>975.2139180499757</v>
+        <v>1181.410383151395</v>
       </c>
       <c r="Y34" t="n">
-        <v>747.794247364084</v>
+        <v>953.9907124655035</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2193.579458235589</v>
+        <v>1583.358990039416</v>
       </c>
       <c r="C35" t="n">
-        <v>1755.436985419012</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="D35" t="n">
-        <v>1319.527200593457</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="E35" t="n">
-        <v>885.7524557517518</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="F35" t="n">
-        <v>457.8850261609595</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G35" t="n">
-        <v>58.44949877419725</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H35" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I35" t="n">
-        <v>122.6176114159376</v>
+        <v>122.6176114159378</v>
       </c>
       <c r="J35" t="n">
-        <v>285.8514025294302</v>
+        <v>285.8514025294307</v>
       </c>
       <c r="K35" t="n">
-        <v>530.4965414133952</v>
+        <v>530.4965414133957</v>
       </c>
       <c r="L35" t="n">
-        <v>834.0004692019339</v>
+        <v>834.0004692019343</v>
       </c>
       <c r="M35" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N35" t="n">
-        <v>1514.87811225076</v>
+        <v>1514.878112250761</v>
       </c>
       <c r="O35" t="n">
-        <v>1838.924798328298</v>
+        <v>1838.924798328299</v>
       </c>
       <c r="P35" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q35" t="n">
-        <v>2323.180958383277</v>
+        <v>2323.180958383278</v>
       </c>
       <c r="R35" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S35" t="n">
-        <v>2405.056699646439</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T35" t="n">
-        <v>2193.579458235589</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="U35" t="n">
-        <v>2193.579458235589</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="V35" t="n">
-        <v>2193.579458235589</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="W35" t="n">
-        <v>2193.579458235589</v>
+        <v>2039.137116702106</v>
       </c>
       <c r="X35" t="n">
-        <v>2193.579458235589</v>
+        <v>1991.645113739763</v>
       </c>
       <c r="Y35" t="n">
-        <v>2193.579458235589</v>
+        <v>1583.358990039416</v>
       </c>
     </row>
     <row r="36">
@@ -7007,28 +7007,28 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G36" t="n">
-        <v>80.47543658368232</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H36" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I36" t="n">
-        <v>48.87985142582144</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J36" t="n">
-        <v>146.1007791495983</v>
+        <v>122.5847930309432</v>
       </c>
       <c r="K36" t="n">
-        <v>312.2668297510696</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L36" t="n">
-        <v>535.6975909490444</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M36" t="n">
-        <v>796.430750718906</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N36" t="n">
-        <v>1064.064741392145</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O36" t="n">
         <v>1285.381570195347</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>795.973886152104</v>
+        <v>798.0941264563492</v>
       </c>
       <c r="C37" t="n">
-        <v>623.4121746353289</v>
+        <v>625.5324149395741</v>
       </c>
       <c r="D37" t="n">
-        <v>457.5341818368516</v>
+        <v>459.6544221410968</v>
       </c>
       <c r="E37" t="n">
-        <v>287.7761780875888</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="F37" t="n">
-        <v>111.069124049345</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="G37" t="n">
-        <v>111.069124049345</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H37" t="n">
         <v>111.069124049345</v>
       </c>
       <c r="I37" t="n">
-        <v>48.87985142582144</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="J37" t="n">
         <v>196.4528223035573</v>
       </c>
       <c r="K37" t="n">
-        <v>571.4419816982402</v>
+        <v>296.6835271271046</v>
       </c>
       <c r="L37" t="n">
-        <v>790.4881786449042</v>
+        <v>482.7959026296945</v>
       </c>
       <c r="M37" t="n">
-        <v>1385.205069556054</v>
+        <v>618.0289263599313</v>
       </c>
       <c r="N37" t="n">
-        <v>1959.481357400301</v>
+        <v>1192.305214204178</v>
       </c>
       <c r="O37" t="n">
-        <v>2081.420872157461</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P37" t="n">
-        <v>2185.761192734337</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q37" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R37" t="n">
-        <v>2443.992571291072</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="S37" t="n">
-        <v>2443.992571291072</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.87407347982</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="U37" t="n">
-        <v>1923.489084842844</v>
+        <v>2021.706083071094</v>
       </c>
       <c r="V37" t="n">
-        <v>1636.533576713274</v>
+        <v>1734.750574941524</v>
       </c>
       <c r="W37" t="n">
-        <v>1364.507172299566</v>
+        <v>1462.724170527816</v>
       </c>
       <c r="X37" t="n">
-        <v>1215.212175556983</v>
+        <v>1217.332415861228</v>
       </c>
       <c r="Y37" t="n">
-        <v>987.7925048710911</v>
+        <v>989.9127451753363</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2184.009810887213</v>
+        <v>1172.772657936437</v>
       </c>
       <c r="C38" t="n">
-        <v>1745.867338070636</v>
+        <v>1172.772657936437</v>
       </c>
       <c r="D38" t="n">
-        <v>1309.957553245081</v>
+        <v>736.8628731108811</v>
       </c>
       <c r="E38" t="n">
-        <v>876.1828084033759</v>
+        <v>303.0881282691763</v>
       </c>
       <c r="F38" t="n">
-        <v>448.3153788125837</v>
+        <v>303.0881282691763</v>
       </c>
       <c r="G38" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="H38" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I38" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J38" t="n">
-        <v>285.8514025294304</v>
+        <v>285.8514025294302</v>
       </c>
       <c r="K38" t="n">
-        <v>530.4965414133954</v>
+        <v>530.4965414133952</v>
       </c>
       <c r="L38" t="n">
-        <v>834.0004692019342</v>
+        <v>834.0004692019339</v>
       </c>
       <c r="M38" t="n">
         <v>1171.707067812895</v>
       </c>
       <c r="N38" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O38" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P38" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q38" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R38" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S38" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="T38" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="V38" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="W38" t="n">
-        <v>2443.992571291073</v>
+        <v>2000.201245057473</v>
       </c>
       <c r="X38" t="n">
-        <v>2443.992571291073</v>
+        <v>1581.058781636783</v>
       </c>
       <c r="Y38" t="n">
-        <v>2184.009810887213</v>
+        <v>1172.772657936437</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C39" t="n">
-        <v>1204.271003021223</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D39" t="n">
-        <v>1109.180714167776</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E39" t="n">
-        <v>1015.06029949473</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F39" t="n">
-        <v>931.6764611108913</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G39" t="n">
-        <v>847.3412965732202</v>
+        <v>80.47543658368232</v>
       </c>
       <c r="H39" t="n">
-        <v>815.7457114153593</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I39" t="n">
-        <v>815.7457114153593</v>
+        <v>84.30923179960392</v>
       </c>
       <c r="J39" t="n">
-        <v>889.4506530204811</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K39" t="n">
-        <v>1055.616703621952</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L39" t="n">
-        <v>1279.047464819927</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M39" t="n">
-        <v>1539.780624589789</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N39" t="n">
-        <v>1807.414615263028</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O39" t="n">
-        <v>2052.247430184885</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P39" t="n">
-        <v>2248.747349001922</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q39" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R39" t="n">
-        <v>2443.992571291073</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S39" t="n">
-        <v>2400.039033764342</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T39" t="n">
-        <v>2274.092325425019</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U39" t="n">
-        <v>2097.82485245105</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V39" t="n">
-        <v>1898.707334513049</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W39" t="n">
-        <v>1713.384580246243</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X39" t="n">
-        <v>1558.517144485123</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y39" t="n">
-        <v>1432.031365264344</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.761139503991</v>
+        <v>858.0101553636927</v>
       </c>
       <c r="C40" t="n">
-        <v>920.1994279872162</v>
+        <v>858.0101553636927</v>
       </c>
       <c r="D40" t="n">
-        <v>754.3214351887389</v>
+        <v>692.1321625652154</v>
       </c>
       <c r="E40" t="n">
-        <v>584.5634314394762</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="F40" t="n">
-        <v>407.8563774012324</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G40" t="n">
-        <v>243.1453244422349</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H40" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I40" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="J40" t="n">
         <v>196.4528223035573</v>
@@ -7338,46 +7338,46 @@
         <v>571.4419816982402</v>
       </c>
       <c r="L40" t="n">
-        <v>699.702775648498</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M40" t="n">
-        <v>1294.419666559648</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N40" t="n">
-        <v>1426.43715124625</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O40" t="n">
         <v>1733.91397818712</v>
       </c>
       <c r="P40" t="n">
-        <v>2185.761192734338</v>
+        <v>2185.761192734337</v>
       </c>
       <c r="Q40" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R40" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S40" t="n">
-        <v>2443.992571291073</v>
+        <v>2300.091071708069</v>
       </c>
       <c r="T40" t="n">
-        <v>2443.992571291073</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.373096118736</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.417587989166</v>
+        <v>1492.632077130271</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.391183575458</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.99942890887</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.579758222978</v>
+        <v>993.186002030671</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2184.009810887213</v>
+        <v>914.8897538331904</v>
       </c>
       <c r="C41" t="n">
-        <v>1745.867338070636</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="D41" t="n">
-        <v>1309.957553245081</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="E41" t="n">
-        <v>876.1828084033759</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F41" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="G41" t="n">
         <v>48.87985142582146</v>
@@ -7417,7 +7417,7 @@
         <v>530.4965414133954</v>
       </c>
       <c r="L41" t="n">
-        <v>834.000469201934</v>
+        <v>834.0004692019342</v>
       </c>
       <c r="M41" t="n">
         <v>1171.707067812895</v>
@@ -7450,13 +7450,13 @@
         <v>2405.05669964644</v>
       </c>
       <c r="W41" t="n">
-        <v>2184.009810887213</v>
+        <v>2000.201245057473</v>
       </c>
       <c r="X41" t="n">
-        <v>2184.009810887213</v>
+        <v>1581.058781636784</v>
       </c>
       <c r="Y41" t="n">
-        <v>2184.009810887213</v>
+        <v>1172.772657936437</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>84.30923179960394</v>
       </c>
       <c r="J42" t="n">
-        <v>122.5847930309432</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K42" t="n">
-        <v>288.7508436324146</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L42" t="n">
-        <v>512.1816048303893</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M42" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N42" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O42" t="n">
-        <v>1285.381570195347</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P42" t="n">
-        <v>1481.881489012384</v>
+        <v>1540.826855504822</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.236480910291</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.761139503991</v>
+        <v>853.864812842224</v>
       </c>
       <c r="C43" t="n">
-        <v>920.1994279872162</v>
+        <v>681.3031013254489</v>
       </c>
       <c r="D43" t="n">
-        <v>754.3214351887389</v>
+        <v>515.4251085269716</v>
       </c>
       <c r="E43" t="n">
-        <v>584.5634314394762</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="F43" t="n">
-        <v>407.8563774012324</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1453244422349</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H43" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I43" t="n">
         <v>48.87985142582146</v>
@@ -7572,22 +7572,22 @@
         <v>109.8731371388674</v>
       </c>
       <c r="K43" t="n">
-        <v>210.1038419624147</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L43" t="n">
-        <v>539.0117042834557</v>
+        <v>1031.332972251769</v>
       </c>
       <c r="M43" t="n">
-        <v>1133.728595194606</v>
+        <v>1166.565995982006</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.004883038852</v>
+        <v>1298.583480668608</v>
       </c>
       <c r="O43" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P43" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q43" t="n">
         <v>2426.193797186283</v>
@@ -7602,19 +7602,19 @@
         <v>2057.972573896817</v>
       </c>
       <c r="U43" t="n">
-        <v>2057.972573896817</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V43" t="n">
-        <v>1771.017065767248</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.391183575458</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.99942890887</v>
+        <v>1045.683431561211</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.579758222978</v>
+        <v>1045.683431561211</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1571.897189805631</v>
+        <v>1750.235066045508</v>
       </c>
       <c r="C44" t="n">
-        <v>1571.897189805631</v>
+        <v>1312.092593228931</v>
       </c>
       <c r="D44" t="n">
-        <v>1571.897189805631</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="E44" t="n">
-        <v>1145.21651722284</v>
+        <v>876.1828084033759</v>
       </c>
       <c r="F44" t="n">
-        <v>717.3490876320474</v>
+        <v>448.3153788125837</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9135602452851</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="H44" t="n">
         <v>48.87985142582146</v>
@@ -7675,25 +7675,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S44" t="n">
-        <v>2405.05669964644</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T44" t="n">
-        <v>2193.579458235589</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U44" t="n">
-        <v>1934.514139871804</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="V44" t="n">
-        <v>1571.897189805631</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="W44" t="n">
-        <v>1571.897189805631</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="X44" t="n">
-        <v>1571.897189805631</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="Y44" t="n">
-        <v>1571.897189805631</v>
+        <v>1750.235066045508</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>48.87985142582146</v>
       </c>
       <c r="I45" t="n">
-        <v>48.87985142582146</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J45" t="n">
-        <v>146.1007791495983</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K45" t="n">
-        <v>312.2668297510697</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L45" t="n">
-        <v>535.6975909490444</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M45" t="n">
-        <v>796.430750718906</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N45" t="n">
-        <v>1064.064741392145</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O45" t="n">
-        <v>1308.897556314002</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P45" t="n">
         <v>1481.881489012384</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.9756286450968</v>
+        <v>801.3673833116843</v>
       </c>
       <c r="C46" t="n">
-        <v>555.9756286450968</v>
+        <v>628.8056717949092</v>
       </c>
       <c r="D46" t="n">
-        <v>390.0976358466195</v>
+        <v>462.927678996432</v>
       </c>
       <c r="E46" t="n">
-        <v>275.7801770083425</v>
+        <v>462.927678996432</v>
       </c>
       <c r="F46" t="n">
-        <v>275.7801770083425</v>
+        <v>286.2206249581882</v>
       </c>
       <c r="G46" t="n">
-        <v>111.069124049345</v>
+        <v>121.5095719991906</v>
       </c>
       <c r="H46" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I46" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="J46" t="n">
-        <v>109.8731371388674</v>
+        <v>149.1980916069067</v>
       </c>
       <c r="K46" t="n">
-        <v>378.5840300691202</v>
+        <v>524.1872510015896</v>
       </c>
       <c r="L46" t="n">
-        <v>925.054705787339</v>
+        <v>1070.657926719809</v>
       </c>
       <c r="M46" t="n">
-        <v>1060.287729517576</v>
+        <v>1205.890950450045</v>
       </c>
       <c r="N46" t="n">
-        <v>1192.305214204178</v>
+        <v>1780.167238294292</v>
       </c>
       <c r="O46" t="n">
-        <v>1733.91397818712</v>
+        <v>1902.106753051453</v>
       </c>
       <c r="P46" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.95396759867</v>
       </c>
       <c r="Q46" t="n">
         <v>2426.193797186283</v>
@@ -7848,10 +7848,10 @@
         <v>1220.605672716563</v>
       </c>
       <c r="X46" t="n">
-        <v>975.2139180499757</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.794247364084</v>
+        <v>993.1860020306715</v>
       </c>
     </row>
   </sheetData>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8076884687375281</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.721517647487968</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.77317454025744</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.756031575968057</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.90535958887606</v>
       </c>
       <c r="K7" t="n">
-        <v>2.704768336622556</v>
+        <v>2.704768336622557</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06572881018616883</v>
+        <v>2.54878180977833</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>2.527875949017729</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.860536639450492</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>11.14042390876191</v>
       </c>
       <c r="J9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>34.49694768506275</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
         <v>34.17160518172662</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O13" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520544</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>11.13057120969233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>156.7304232042866</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>458.1582657371569</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>45.75904403825018</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>337.3548964453464</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>115.2195789960539</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>398.9940125868625</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10035,25 +10035,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>204.8104810171488</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>115.2195789960538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>244.3647007916517</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>156.2110528699204</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>227.6282122614556</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>204.1479149783872</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>91.70242726909726</v>
+        <v>58.43594096195164</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10986,16 +10986,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>187.4114264481916</v>
+        <v>229.1023208047081</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>202.6738064351346</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>316.5565482437894</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>39.72217623034271</v>
       </c>
       <c r="K46" t="n">
-        <v>170.1820081885913</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>18.77402585779841</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>30.88739499768407</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -22846,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>12.88428573883256</v>
+        <v>11.68848986422212</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.9407135410828178</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>34.32634709450144</v>
       </c>
       <c r="G11" t="n">
-        <v>47.49410882734776</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>20.90522654449944</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.7337145695616</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>211.4589507939326</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>21.11365827988544</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -23554,16 +23554,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>93.63231361822159</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23673,7 +23673,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.91154299085278</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.0767002917533</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>50.88670959368116</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>113.6820091741354</v>
       </c>
       <c r="F19" t="n">
-        <v>129.2899833681456</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>206.3081749834521</v>
       </c>
       <c r="D20" t="n">
-        <v>179.8172418345922</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24034,10 +24034,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>17.37276626270111</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.6775016064192</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>355.1201299879343</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>266.343371731269</v>
@@ -24262,10 +24262,10 @@
         <v>209.3624689967422</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>72.70824273690829</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>2.620705105130838</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>25.35330611126659</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>306.1312660550317</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24457,7 +24457,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H26" t="n">
         <v>266.343371731269</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>345.5103874688156</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>124.0741979535491</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.29930024237439</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I28" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>185.4931337249033</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H29" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>38.54651292818659</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>256.4746651801473</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>152.1860575937045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6011387506063</v>
+        <v>178.4532807891011</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>113.3540324125263</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>327.159513611257</v>
       </c>
       <c r="G32" t="n">
-        <v>157.5681059866613</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H32" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>69.537851220167</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>163.0639424294076</v>
       </c>
       <c r="H34" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>204.1345004504053</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>256.8694208563769</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U35" t="n">
         <v>256.4746651801473</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>367.9339558537629</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>116.7803594193044</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>95.13579034476453</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>143.7749780379734</v>
       </c>
       <c r="H38" t="n">
         <v>266.343371731269</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.3624689967422</v>
@@ -25453,13 +25453,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.8203296635221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>56.07634433148866</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>149.2578583299927</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>166.7324997178445</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H41" t="n">
         <v>266.343371731269</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>181.9704801714423</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>255.8165169996993</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>69.76481837612306</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>7.02313153632474</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25933,7 +25933,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>183.2204664471236</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>54.88613946187596</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.755438388961</v>
+        <v>58.85201502132549</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338503.6704877894</v>
+        <v>338503.6704877895</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338503.6704877894</v>
+        <v>338503.6704877895</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338503.6704877894</v>
+        <v>338503.6704877895</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>347938.0081087413</v>
+        <v>347938.0081087412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>347938.0081087413</v>
+        <v>347938.0081087412</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>347938.0081087412</v>
+        <v>347938.0081087413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>347938.0081087411</v>
+        <v>347938.0081087413</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>347938.0081087413</v>
+        <v>347938.0081087412</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379453.858845099</v>
+        <v>379453.8588450989</v>
       </c>
       <c r="C2" t="n">
-        <v>380184.5424598758</v>
+        <v>380184.5424598756</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="F2" t="n">
         <v>228081.478386185</v>
@@ -26331,7 +26331,7 @@
         <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
-        <v>228081.478386185</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="I2" t="n">
         <v>234358.0029017167</v>
@@ -26349,7 +26349,7 @@
         <v>234358.0029017167</v>
       </c>
       <c r="N2" t="n">
-        <v>234358.0029017167</v>
+        <v>234358.0029017166</v>
       </c>
       <c r="O2" t="n">
         <v>234358.0029017167</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18012.50673044238</v>
+        <v>18012.5067304423</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>839.6756910244802</v>
+        <v>839.67569102418</v>
       </c>
       <c r="L3" t="n">
-        <v>9630.733667017977</v>
+        <v>9630.733667018007</v>
       </c>
       <c r="M3" t="n">
         <v>136754.9043831154</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>298360.0532214432</v>
       </c>
       <c r="D4" t="n">
-        <v>294349.6920770005</v>
+        <v>294349.6920770006</v>
       </c>
       <c r="E4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="F4" t="n">
-        <v>16511.4186966076</v>
+        <v>16511.41869660761</v>
       </c>
       <c r="G4" t="n">
         <v>16511.4186966076</v>
@@ -26441,25 +26441,25 @@
         <v>17084.8425117722</v>
       </c>
       <c r="J4" t="n">
+        <v>17084.8425117722</v>
+      </c>
+      <c r="K4" t="n">
         <v>17084.84251177219</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17084.8425117722</v>
       </c>
       <c r="L4" t="n">
         <v>17084.84251177219</v>
       </c>
       <c r="M4" t="n">
+        <v>17084.8425117722</v>
+      </c>
+      <c r="N4" t="n">
         <v>17084.84251177219</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>17084.84251177219</v>
+      </c>
+      <c r="P4" t="n">
         <v>17084.8425117722</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17084.8425117722</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17084.84251177219</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>47683.36020563891</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326618</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="C6" t="n">
-        <v>44462.12773284457</v>
+        <v>44432.7406140145</v>
       </c>
       <c r="D6" t="n">
-        <v>19913.15531308474</v>
+        <v>19913.15531308468</v>
       </c>
       <c r="E6" t="n">
-        <v>-346966.531076042</v>
+        <v>-347520.4115192639</v>
       </c>
       <c r="F6" t="n">
-        <v>165518.9784799396</v>
+        <v>164965.0980367177</v>
       </c>
       <c r="G6" t="n">
-        <v>165518.9784799397</v>
+        <v>164965.0980367177</v>
       </c>
       <c r="H6" t="n">
-        <v>165518.9784799396</v>
+        <v>164965.0980367177</v>
       </c>
       <c r="I6" t="n">
-        <v>151577.2934538632</v>
+        <v>151045.0561986259</v>
       </c>
       <c r="J6" t="n">
-        <v>169589.8001843056</v>
+        <v>169057.5629290683</v>
       </c>
       <c r="K6" t="n">
-        <v>168750.1244932811</v>
+        <v>168217.8872380441</v>
       </c>
       <c r="L6" t="n">
-        <v>159959.0665172876</v>
+        <v>159426.8292620503</v>
       </c>
       <c r="M6" t="n">
-        <v>32834.8958011902</v>
+        <v>32302.65854595278</v>
       </c>
       <c r="N6" t="n">
-        <v>169589.8001843055</v>
+        <v>169057.5629290682</v>
       </c>
       <c r="O6" t="n">
-        <v>169589.8001843056</v>
+        <v>169057.5629290683</v>
       </c>
       <c r="P6" t="n">
-        <v>169589.8001843056</v>
+        <v>169057.5629290683</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>483.2418863309455</v>
@@ -26798,13 +26798,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.081894361934</v>
@@ -26813,19 +26813,19 @@
         <v>610.9981428227682</v>
       </c>
       <c r="J4" t="n">
+        <v>610.9981428227682</v>
+      </c>
+      <c r="K4" t="n">
         <v>610.998142822768</v>
-      </c>
-      <c r="K4" t="n">
-        <v>610.9981428227682</v>
       </c>
       <c r="L4" t="n">
         <v>610.9981428227682</v>
       </c>
       <c r="M4" t="n">
+        <v>610.9981428227682</v>
+      </c>
+      <c r="N4" t="n">
         <v>610.998142822768</v>
-      </c>
-      <c r="N4" t="n">
-        <v>610.9981428227682</v>
       </c>
       <c r="O4" t="n">
         <v>610.9981428227682</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.53995823772453</v>
+        <v>16.53995823772442</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>38.05245412526707</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922261043</v>
+        <v>3.262548922259877</v>
       </c>
       <c r="L4" t="n">
-        <v>38.0524541252671</v>
+        <v>38.05245412526722</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144065</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>38.05245412526707</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144066</v>
+        <v>548.7668913144067</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.8283131467052</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27703,7 +27703,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F6" t="n">
         <v>82.55</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T6" t="n">
         <v>128.8537753079323</v>
@@ -27754,16 +27754,16 @@
         <v>171.6991516940688</v>
       </c>
       <c r="V6" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W6" t="n">
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>150.0562124812485</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.9583725063111</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>167.573545479347</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -27785,13 +27785,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>172.0663304071345</v>
       </c>
       <c r="G7" t="n">
         <v>163.9305612960722</v>
       </c>
       <c r="H7" t="n">
-        <v>138.4604679489429</v>
+        <v>135.1979190266826</v>
       </c>
       <c r="I7" t="n">
         <v>84.36642380163354</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.72522696250731</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S7" t="n">
         <v>157.5652879271376</v>
@@ -27833,7 +27833,7 @@
         <v>275.6484088706061</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>280.8234041260135</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -27842,7 +27842,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.2718208883059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>78.77585902143818</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
@@ -27943,13 +27943,13 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.15974531573791</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>40.6378963153706</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>128.5928940176698</v>
+        <v>91.52553260125097</v>
       </c>
       <c r="U9" t="n">
-        <v>133.2535436095709</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28013,25 +28013,25 @@
         <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>152.993796851624</v>
       </c>
       <c r="D10" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>68.15486756642629</v>
+        <v>85.99716511640959</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646698</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,7 +32794,7 @@
         <v>167.8444955570417</v>
       </c>
       <c r="L24" t="n">
-        <v>166.1468633389264</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M24" t="n">
         <v>263.3668280503653</v>
@@ -32803,7 +32803,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O24" t="n">
-        <v>247.3058736584415</v>
+        <v>187.765099423656</v>
       </c>
       <c r="P24" t="n">
         <v>198.4847664818558</v>
@@ -33025,7 +33025,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J27" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K27" t="n">
         <v>167.8444955570417</v>
@@ -33043,7 +33043,7 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470704</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q27" t="n">
         <v>132.6818099978853</v>
@@ -33274,7 +33274,7 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N30" t="n">
-        <v>270.3373643164032</v>
+        <v>210.7965900816178</v>
       </c>
       <c r="O30" t="n">
         <v>247.3058736584415</v>
@@ -33283,7 +33283,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R30" t="n">
         <v>64.53558625378177</v>
@@ -33517,7 +33517,7 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P33" t="n">
-        <v>138.9439922470701</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q33" t="n">
         <v>132.6818099978853</v>
@@ -33733,10 +33733,10 @@
         <v>10.03866635566738</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K36" t="n">
         <v>167.8444955570417</v>
@@ -33751,7 +33751,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O36" t="n">
-        <v>223.5523523264665</v>
+        <v>247.3058736584415</v>
       </c>
       <c r="P36" t="n">
         <v>198.4847664818558</v>
@@ -33970,10 +33970,10 @@
         <v>10.03866635566738</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J39" t="n">
-        <v>74.44943596476946</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K39" t="n">
         <v>167.8444955570417</v>
@@ -33991,7 +33991,7 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
         <v>132.6818099978853</v>
@@ -34210,7 +34210,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J42" t="n">
-        <v>38.6621830619589</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K42" t="n">
         <v>167.8444955570417</v>
@@ -34231,7 +34231,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978853</v>
+        <v>73.14103576309981</v>
       </c>
       <c r="R42" t="n">
         <v>64.53558625378177</v>
@@ -34444,7 +34444,7 @@
         <v>10.03866635566738</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
         <v>98.20295729674433</v>
@@ -34465,7 +34465,7 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P45" t="n">
-        <v>174.7312451498808</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q45" t="n">
         <v>132.6818099978853</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817444</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L5" t="n">
-        <v>1.688989405823954</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
         <v>1.879326147397211</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.004851808738578</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J6" t="n">
-        <v>3.262548922260276</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9247086227794465</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L6" t="n">
         <v>1.243384859458851</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45097148431346</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N6" t="n">
-        <v>1.489374382002836</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="O6" t="n">
         <v>1.362486586628911</v>
@@ -35035,7 +35035,7 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7309862225975241</v>
+        <v>2.487017798565581</v>
       </c>
       <c r="R6" t="n">
         <v>0.3555470370770522</v>
@@ -35093,19 +35093,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3394256349377582</v>
+        <v>3.244785223813818</v>
       </c>
       <c r="K7" t="n">
         <v>3.262548922260276</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7794959226681151</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="M7" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N7" t="n">
-        <v>3.262548922260276</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O7" t="n">
         <v>0.6785894010559677</v>
@@ -35114,7 +35114,7 @@
         <v>0.5806504625449325</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.262548922260276</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>13.56600741041745</v>
       </c>
       <c r="J9" t="n">
-        <v>28.41038681069788</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>8.992889456329024</v>
       </c>
       <c r="R9" t="n">
-        <v>4.37408408273069</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,22 +35330,22 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>38.67269972973595</v>
+        <v>4.175752044673201</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>8.392270460025118</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829307</v>
+        <v>8.781052968829311</v>
       </c>
       <c r="M10" t="n">
         <v>9.258389161154689</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419722</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="P10" t="n">
         <v>41.31500304752734</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916794</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562336</v>
@@ -35573,16 +35573,16 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O13" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108057</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263753</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M16" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>112.9174966416956</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646698</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>281.8524450409511</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
@@ -36062,10 +36062,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>139.7481869072826</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816031</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>170.8810658749147</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>469.2785250701236</v>
       </c>
       <c r="N22" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>306.5696240288269</v>
       </c>
       <c r="M23" t="n">
-        <v>341.1177763747082</v>
+        <v>341.117776374708</v>
       </c>
       <c r="N23" t="n">
-        <v>346.6374186241062</v>
+        <v>346.6374186241064</v>
       </c>
       <c r="O23" t="n">
         <v>327.3198849268065</v>
@@ -36442,7 +36442,7 @@
         <v>167.8444955570417</v>
       </c>
       <c r="L24" t="n">
-        <v>166.1468633389264</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M24" t="n">
         <v>263.3668280503653</v>
@@ -36451,7 +36451,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O24" t="n">
-        <v>247.3058736584414</v>
+        <v>187.765099423656</v>
       </c>
       <c r="P24" t="n">
         <v>198.4847664818558</v>
@@ -36518,22 +36518,22 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K25" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L25" t="n">
-        <v>551.9905815335545</v>
+        <v>244.7759365215668</v>
       </c>
       <c r="M25" t="n">
-        <v>136.599013868926</v>
+        <v>600.7241322334847</v>
       </c>
       <c r="N25" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O25" t="n">
-        <v>522.1652396142977</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P25" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q25" t="n">
         <v>72.96952483597261</v>
@@ -36600,10 +36600,10 @@
         <v>247.1163019029951</v>
       </c>
       <c r="L26" t="n">
-        <v>306.5696240288269</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M26" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747081</v>
       </c>
       <c r="N26" t="n">
         <v>346.6374186241064</v>
@@ -36673,7 +36673,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J27" t="n">
-        <v>98.20295729674434</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K27" t="n">
         <v>167.8444955570417</v>
@@ -36691,7 +36691,7 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P27" t="n">
-        <v>138.9439922470704</v>
+        <v>198.4847664818558</v>
       </c>
       <c r="Q27" t="n">
         <v>132.6818099978852</v>
@@ -36755,25 +36755,25 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K28" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L28" t="n">
-        <v>334.3668385426618</v>
+        <v>129.5563575255129</v>
       </c>
       <c r="M28" t="n">
-        <v>136.5990138689261</v>
+        <v>600.7241322334846</v>
       </c>
       <c r="N28" t="n">
-        <v>580.0770584285322</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O28" t="n">
-        <v>123.1712270274352</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P28" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q28" t="n">
-        <v>242.8612166181265</v>
+        <v>188.1891038320264</v>
       </c>
       <c r="R28" t="n">
         <v>17.9785597018076</v>
@@ -36840,7 +36840,7 @@
         <v>306.569624028827</v>
       </c>
       <c r="M29" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N29" t="n">
         <v>346.6374186241064</v>
@@ -36910,7 +36910,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J30" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674434</v>
       </c>
       <c r="K30" t="n">
         <v>167.8444955570417</v>
@@ -36922,7 +36922,7 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N30" t="n">
-        <v>270.3373643164032</v>
+        <v>210.7965900816178</v>
       </c>
       <c r="O30" t="n">
         <v>247.3058736584414</v>
@@ -36931,7 +36931,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R30" t="n">
         <v>64.53558625378173</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>61.60937950812726</v>
+        <v>149.0636069472079</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L31" t="n">
-        <v>551.9905815335544</v>
+        <v>551.9905815335545</v>
       </c>
       <c r="M31" t="n">
-        <v>380.9637146605778</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N31" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O31" t="n">
-        <v>547.0795595787295</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P31" t="n">
-        <v>105.3942632089656</v>
+        <v>261.6053160788861</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R31" t="n">
         <v>17.9785597018076</v>
@@ -37068,16 +37068,16 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J32" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K32" t="n">
         <v>247.116301902995</v>
       </c>
       <c r="L32" t="n">
-        <v>306.5696240288269</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M32" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747081</v>
       </c>
       <c r="N32" t="n">
         <v>346.6374186241064</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281056</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J33" t="n">
         <v>98.20295729674433</v>
@@ -37153,7 +37153,7 @@
         <v>167.8444955570417</v>
       </c>
       <c r="L33" t="n">
-        <v>225.687637573712</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M33" t="n">
         <v>263.3668280503653</v>
@@ -37162,13 +37162,13 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O33" t="n">
-        <v>247.3058736584417</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P33" t="n">
-        <v>138.9439922470701</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.6818099978855</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R33" t="n">
         <v>64.53558625378173</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>61.60937950812726</v>
+        <v>149.0636069472079</v>
       </c>
       <c r="K34" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L34" t="n">
-        <v>551.9905815335544</v>
+        <v>357.1845697869685</v>
       </c>
       <c r="M34" t="n">
-        <v>600.7241322334849</v>
+        <v>136.5990138689261</v>
       </c>
       <c r="N34" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O34" t="n">
-        <v>327.3191420058224</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P34" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R34" t="n">
         <v>17.9785597018076</v>
@@ -37305,16 +37305,16 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J35" t="n">
-        <v>164.8826172863562</v>
+        <v>164.8826172863564</v>
       </c>
       <c r="K35" t="n">
         <v>247.116301902995</v>
       </c>
       <c r="L35" t="n">
-        <v>306.569624028827</v>
+        <v>306.5696240288269</v>
       </c>
       <c r="M35" t="n">
-        <v>341.1177763747079</v>
+        <v>341.117776374708</v>
       </c>
       <c r="N35" t="n">
         <v>346.6374186241064</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J36" t="n">
-        <v>98.20295729674432</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K36" t="n">
         <v>167.8444955570417</v>
@@ -37396,10 +37396,10 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N36" t="n">
-        <v>270.3373643164033</v>
+        <v>270.3373643164032</v>
       </c>
       <c r="O36" t="n">
-        <v>223.5523523264665</v>
+        <v>247.3058736584414</v>
       </c>
       <c r="P36" t="n">
         <v>198.4847664818558</v>
@@ -37466,22 +37466,22 @@
         <v>149.0636069472079</v>
       </c>
       <c r="K37" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854014</v>
       </c>
       <c r="L37" t="n">
-        <v>221.2587847946102</v>
+        <v>187.9922984874645</v>
       </c>
       <c r="M37" t="n">
-        <v>600.7241322334847</v>
+        <v>136.5990138689261</v>
       </c>
       <c r="N37" t="n">
         <v>580.0770584285319</v>
       </c>
       <c r="O37" t="n">
-        <v>123.1712270274352</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P37" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q37" t="n">
         <v>242.8612166181265</v>
@@ -37545,13 +37545,13 @@
         <v>164.8826172863562</v>
       </c>
       <c r="K38" t="n">
-        <v>247.1163019029951</v>
+        <v>247.116301902995</v>
       </c>
       <c r="L38" t="n">
         <v>306.569624028827</v>
       </c>
       <c r="M38" t="n">
-        <v>341.1177763747081</v>
+        <v>341.1177763747079</v>
       </c>
       <c r="N38" t="n">
         <v>346.6374186241064</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J39" t="n">
-        <v>74.44943596476946</v>
+        <v>98.20295729674434</v>
       </c>
       <c r="K39" t="n">
         <v>167.8444955570417</v>
       </c>
       <c r="L39" t="n">
-        <v>225.687637573712</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M39" t="n">
         <v>263.3668280503653</v>
@@ -37639,10 +37639,10 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.6818099978855</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R39" t="n">
         <v>64.53558625378173</v>
@@ -37706,16 +37706,16 @@
         <v>378.7769286814979</v>
       </c>
       <c r="L40" t="n">
-        <v>129.5563575255129</v>
+        <v>551.9905815335545</v>
       </c>
       <c r="M40" t="n">
-        <v>600.7241322334846</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N40" t="n">
         <v>133.3509946329314</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5826534756268</v>
+        <v>352.2735478321433</v>
       </c>
       <c r="P40" t="n">
         <v>456.4113278254724</v>
@@ -37785,10 +37785,10 @@
         <v>247.1163019029951</v>
       </c>
       <c r="L41" t="n">
-        <v>306.5696240288269</v>
+        <v>306.569624028827</v>
       </c>
       <c r="M41" t="n">
-        <v>341.1177763747082</v>
+        <v>341.1177763747081</v>
       </c>
       <c r="N41" t="n">
         <v>346.6374186241064</v>
@@ -37858,7 +37858,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J42" t="n">
-        <v>38.6621830619589</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K42" t="n">
         <v>167.8444955570417</v>
@@ -37879,7 +37879,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978852</v>
+        <v>73.14103576309981</v>
       </c>
       <c r="R42" t="n">
         <v>64.53558625378173</v>
@@ -37940,25 +37940,25 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K43" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L43" t="n">
-        <v>332.2301639606475</v>
+        <v>551.9905815335544</v>
       </c>
       <c r="M43" t="n">
-        <v>600.7241322334847</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N43" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O43" t="n">
-        <v>547.0795595787295</v>
+        <v>439.7277752712246</v>
       </c>
       <c r="P43" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R43" t="n">
         <v>17.9785597018076</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
         <v>98.20295729674433</v>
       </c>
       <c r="K45" t="n">
-        <v>167.8444955570418</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L45" t="n">
         <v>225.6876375737119</v>
@@ -38107,13 +38107,13 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N45" t="n">
-        <v>270.3373643164033</v>
+        <v>270.3373643164032</v>
       </c>
       <c r="O45" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P45" t="n">
-        <v>174.7312451498808</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q45" t="n">
         <v>132.6818099978852</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>61.60937950812726</v>
+        <v>101.33155573847</v>
       </c>
       <c r="K46" t="n">
-        <v>271.4251443739927</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L46" t="n">
         <v>551.9905815335544</v>
       </c>
       <c r="M46" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N46" t="n">
-        <v>133.3509946329314</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O46" t="n">
-        <v>547.0795595787297</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P46" t="n">
         <v>456.4113278254724</v>
       </c>
       <c r="Q46" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R46" t="n">
         <v>17.9785597018076</v>
